--- a/data/cipherTestData.xlsx
+++ b/data/cipherTestData.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Login" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="StepUp" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="PerformActivity" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="AuthCriteriaCheck" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="StepUp" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="161">
   <si>
     <t xml:space="preserve">bankId</t>
   </si>
@@ -34,21 +35,21 @@
     <t xml:space="preserve">crnNo</t>
   </si>
   <si>
+    <t xml:space="preserve">deviceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deviceOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deviceOsVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deviceIpAddress</t>
+  </si>
+  <si>
     <t xml:space="preserve">bankAppVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">deviceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deviceIpAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deviceOs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deviceOsVersion</t>
-  </si>
-  <si>
     <t xml:space="preserve">activityType</t>
   </si>
   <si>
@@ -70,288 +71,451 @@
     <t xml:space="preserve">9876543210</t>
   </si>
   <si>
+    <t xml:space="preserve">11111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2be4fe00ec72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP/1.1 200 OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11111 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11112 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2be4fe00ec73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11113 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2be4fe00ec74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11114 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2be4fe00ec75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11115 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2be4fe00ec76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11116 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2be4fe00ec77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11117 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2be4fe00ec78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11118 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2be4fe00ec79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11119 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2be4fe00ec80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 11120 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22222222222221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No key 22222222222221 found in Redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22222222222228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No key 22222222222228 found in Redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22222222222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No key 22222222222229 found in Redis</t>
+  </si>
+  <si>
     <t xml:space="preserve">somecrn</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3ef2be4fe00ec72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP/1.1 200 OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User somecrn registered successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9823242526</t>
+    <t xml:space="preserve">BalanceInquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f968f2a2-4841-482e-a531-bcb40f1b3875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">11111111111111</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11111111111111 registered successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9823242527</t>
-  </si>
-  <si>
     <t xml:space="preserve">11111111111112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3ef2be4fe00ec73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User 11111111111112 registered successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9823242528</t>
+    <t xml:space="preserve">AddBeneficiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
   </si>
   <si>
     <t xml:space="preserve">11111111111113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3ef2be4fe00ec74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User 11111111111113 registered successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9823242529</t>
-  </si>
-  <si>
     <t xml:space="preserve">11111111111114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3ef2be4fe00ec75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User 11111111111114 registered successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9823242530</t>
+    <t xml:space="preserve">AmountWithdrawal</t>
   </si>
   <si>
     <t xml:space="preserve">11111111111115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3ef2be4fe00ec76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User 11111111111115 registered successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9823242531</t>
-  </si>
-  <si>
     <t xml:space="preserve">11111111111116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3ef2be4fe00ec77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP/1.1 400 Bad Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error in calling register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank07</t>
-  </si>
-  <si>
     <t xml:space="preserve">11111111111117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3ef2be4fe00ec78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9823242533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3ef2be4fe00ec79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9823242534</t>
+    <t xml:space="preserve">c954eadb-c395-43ec-a117-7bfd4fffa25a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No key c954eadb-c395-43ec-a117-7bfd4fffa25a found in Redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22222222222227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No key 22222222222227 found in Redis</t>
   </si>
   <si>
     <t xml:space="preserve">11111111111119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error in calling login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9823242532</t>
+    <t xml:space="preserve">Error in calling performActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StepUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1117</t>
   </si>
   <si>
     <t xml:space="preserve">11111111111118</t>
   </si>
   <si>
-    <t xml:space="preserve">f3ef2be4fe00ec80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234</t>
+    <t xml:space="preserve">1118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error auth Criteria Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9823242707</t>
   </si>
   <si>
     <t xml:space="preserve">Error step up</t>
   </si>
   <si>
-    <t xml:space="preserve">1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StepUp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error auth Criteria Check</t>
+    <t xml:space="preserve">9823242708</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>75dbf4bf-8eed-4ce4-951c-084ee3c6464e</t>
+  </si>
+  <si>
+    <t>a845ebe6-329f-4034-bd0d-d2b0012bf033</t>
+  </si>
+  <si>
+    <t>649c0674-d6a5-4f99-9eb2-85fc117c9bd6</t>
+  </si>
+  <si>
+    <t>449f90b9-f4ad-412f-9eeb-1eb6b584f786</t>
+  </si>
+  <si>
+    <t>49dd9722-2f5c-4d52-b5ed-3af6599d7097</t>
+  </si>
+  <si>
+    <t>779b4529-3bea-477c-9703-3417a5931368</t>
+  </si>
+  <si>
+    <t>d8c65332-d6f4-44d2-b168-4c1fb86ec378</t>
+  </si>
+  <si>
+    <t>5cf9e700-4f34-4c48-8b92-cd4bcee94dc9</t>
+  </si>
+  <si>
+    <t>6250fc0f-7b4e-41ad-a3dd-d4586cae5969</t>
+  </si>
+  <si>
+    <t>f1818c94-c575-4400-b85f-5117d3576682</t>
+  </si>
+  <si>
+    <t>13d9e486-f196-44a0-b496-8b3413a7aa9f</t>
+  </si>
+  <si>
+    <t>d3817576-0198-408f-bfae-cef7f206ace0</t>
+  </si>
+  <si>
+    <t>f24e1aa2-93a3-4019-81b3-8ffa74db3d94</t>
+  </si>
+  <si>
+    <t>49e9c59c-4c0d-48c2-aa84-5cce719b1f02</t>
+  </si>
+  <si>
+    <t>bd58eebf-3b20-4eb4-89dd-23bc1fd9c053</t>
+  </si>
+  <si>
+    <t>14b002f5-c5b9-427c-bbfc-05c81ffedd9f</t>
+  </si>
+  <si>
+    <t>b4b1e064-2782-4630-adaf-0d4db46d4248</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -425,7 +589,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +599,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,16 +623,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="38.16"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="12.13" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="38.16" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,32 +701,27 @@
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -575,193 +738,170 @@
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
@@ -772,73 +912,65 @@
         <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -847,78 +979,72 @@
       <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -942,7 +1068,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1010,31 +1136,27 @@
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -1051,189 +1173,169 @@
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>61</v>
@@ -1245,72 +1347,64 @@
         <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,78 +1415,70 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1503,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="18.55" collapsed="true" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1468,7 +1557,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -1486,30 +1575,30 @@
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>160</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -1527,265 +1616,265 @@
         <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
+        <v>160</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
+        <v>160</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>160</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="J6" t="s">
+        <v>160</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+      <c r="J7" t="s">
+        <v>160</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>160</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,78 +1885,72 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1888,11 +1971,11 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1943,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -1961,30 +2044,30 @@
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -2002,265 +2085,265 @@
         <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,78 +2354,545 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/cipherTestData.xlsx
+++ b/data/cipherTestData.xlsx
@@ -11,8 +11,10 @@
     <sheet name="Registration" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Login" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="PerformActivity" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="AuthCriteriaCheck" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="StepUp" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="updateAuthCriteria" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="AuthCriteriaCheck" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="StepUp" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="updateAuthCriteria_2" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="162">
   <si>
     <t xml:space="preserve">bankId</t>
   </si>
@@ -56,6 +58,9 @@
     <t xml:space="preserve">sessionId</t>
   </si>
   <si>
+    <t xml:space="preserve">levelTag</t>
+  </si>
+  <si>
     <t xml:space="preserve">statusCode</t>
   </si>
   <si>
@@ -71,7 +76,7 @@
     <t xml:space="preserve">9876543210</t>
   </si>
   <si>
-    <t xml:space="preserve">11111</t>
+    <t xml:space="preserve">111111</t>
   </si>
   <si>
     <t xml:space="preserve">f3ef2be4fe00ec72</t>
@@ -89,13 +94,16 @@
     <t xml:space="preserve">1.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Level1</t>
+  </si>
+  <si>
     <t xml:space="preserve">200</t>
   </si>
   <si>
     <t xml:space="preserve">HTTP/1.1 200 OK</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11111 registered successfully</t>
+    <t xml:space="preserve">User 111111 registered successfully</t>
   </si>
   <si>
     <t xml:space="preserve">bank01</t>
@@ -104,10 +112,10 @@
     <t xml:space="preserve">9823242526</t>
   </si>
   <si>
-    <t xml:space="preserve">11112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User 11112 registered successfully</t>
+    <t xml:space="preserve">111112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 111112 registered successfully</t>
   </si>
   <si>
     <t xml:space="preserve">bank02</t>
@@ -116,7 +124,7 @@
     <t xml:space="preserve">9823242527</t>
   </si>
   <si>
-    <t xml:space="preserve">11113</t>
+    <t xml:space="preserve">111113</t>
   </si>
   <si>
     <t xml:space="preserve">f3ef2be4fe00ec73</t>
@@ -131,7 +139,7 @@
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11113 registered successfully</t>
+    <t xml:space="preserve">User 111113 registered successfully</t>
   </si>
   <si>
     <t xml:space="preserve">bank03</t>
@@ -140,7 +148,7 @@
     <t xml:space="preserve">9823242528</t>
   </si>
   <si>
-    <t xml:space="preserve">11114</t>
+    <t xml:space="preserve">111114</t>
   </si>
   <si>
     <t xml:space="preserve">f3ef2be4fe00ec74</t>
@@ -155,7 +163,7 @@
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11114 registered successfully</t>
+    <t xml:space="preserve">User 111114 registered successfully</t>
   </si>
   <si>
     <t xml:space="preserve">bank04</t>
@@ -164,7 +172,7 @@
     <t xml:space="preserve">9823242529</t>
   </si>
   <si>
-    <t xml:space="preserve">11115</t>
+    <t xml:space="preserve">111115</t>
   </si>
   <si>
     <t xml:space="preserve">f3ef2be4fe00ec75</t>
@@ -179,7 +187,7 @@
     <t xml:space="preserve">1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11115 registered successfully</t>
+    <t xml:space="preserve">User 111115 registered successfully</t>
   </si>
   <si>
     <t xml:space="preserve">bank05</t>
@@ -188,7 +196,7 @@
     <t xml:space="preserve">9823242530</t>
   </si>
   <si>
-    <t xml:space="preserve">11116</t>
+    <t xml:space="preserve">111116</t>
   </si>
   <si>
     <t xml:space="preserve">f3ef2be4fe00ec76</t>
@@ -203,7 +211,7 @@
     <t xml:space="preserve">1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11116 registered successfully</t>
+    <t xml:space="preserve">User 111116 registered successfully</t>
   </si>
   <si>
     <t xml:space="preserve">bank06</t>
@@ -212,7 +220,7 @@
     <t xml:space="preserve">9823242531</t>
   </si>
   <si>
-    <t xml:space="preserve">11117</t>
+    <t xml:space="preserve">111117</t>
   </si>
   <si>
     <t xml:space="preserve">f3ef2be4fe00ec77</t>
@@ -227,7 +235,7 @@
     <t xml:space="preserve">1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11117 registered successfully</t>
+    <t xml:space="preserve">User 111117 registered successfully</t>
   </si>
   <si>
     <t xml:space="preserve">bank07</t>
@@ -236,7 +244,7 @@
     <t xml:space="preserve">9823242532</t>
   </si>
   <si>
-    <t xml:space="preserve">11118</t>
+    <t xml:space="preserve">111118</t>
   </si>
   <si>
     <t xml:space="preserve">f3ef2be4fe00ec78</t>
@@ -251,7 +259,7 @@
     <t xml:space="preserve">1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11118 registered successfully</t>
+    <t xml:space="preserve">User 111118 registered successfully</t>
   </si>
   <si>
     <t xml:space="preserve">bank08</t>
@@ -260,7 +268,7 @@
     <t xml:space="preserve">9823242533</t>
   </si>
   <si>
-    <t xml:space="preserve">11119</t>
+    <t xml:space="preserve">111119</t>
   </si>
   <si>
     <t xml:space="preserve">f3ef2be4fe00ec79</t>
@@ -275,7 +283,7 @@
     <t xml:space="preserve">1.7</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11119 registered successfully</t>
+    <t xml:space="preserve">User 111119 registered successfully</t>
   </si>
   <si>
     <t xml:space="preserve">bank09</t>
@@ -284,7 +292,7 @@
     <t xml:space="preserve">9823242534</t>
   </si>
   <si>
-    <t xml:space="preserve">11120</t>
+    <t xml:space="preserve">111120</t>
   </si>
   <si>
     <t xml:space="preserve">f3ef2be4fe00ec80</t>
@@ -299,10 +307,10 @@
     <t xml:space="preserve">1.8</t>
   </si>
   <si>
-    <t xml:space="preserve">User 11120 registered successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22222222222221</t>
+    <t xml:space="preserve">User 111120 registered successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2222222</t>
   </si>
   <si>
     <t xml:space="preserve">400</t>
@@ -311,120 +319,147 @@
     <t xml:space="preserve">HTTP/1.1 400 Bad Request</t>
   </si>
   <si>
-    <t xml:space="preserve">No key 22222222222221 found in Redis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22222222222228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No key 22222222222228 found in Redis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22222222222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No key 22222222222229 found in Redis</t>
+    <t xml:space="preserve">No such binding '2222222':'PRIMARY' found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3ef2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's device is not registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198.160.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2222230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No such binding '2222230':'PRIMARY' found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BalanceInquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8db5ec0-2033-4a81-9204-0d58f1d73ac1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddBeneficiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmountWithdrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both activityType and SessionId must be defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45cfd3d2-5457-476b-9e09-a09d89f9d94e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No key 2222229 found in Redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in calling performActivity NoSession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11445dcb-31b6-4e5e-b935-06d5a89e6e9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in calling performActivity DecryptionError</t>
   </si>
   <si>
     <t xml:space="preserve">somecrn</t>
   </si>
   <si>
-    <t xml:space="preserve">BalanceInquiry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f968f2a2-4841-482e-a531-bcb40f1b3875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enough</t>
   </si>
   <si>
     <t xml:space="preserve">11111111111111</t>
   </si>
   <si>
+    <t xml:space="preserve">1111</t>
+  </si>
+  <si>
     <t xml:space="preserve">11111111111112</t>
   </si>
   <si>
-    <t xml:space="preserve">AddBeneficiary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
+    <t xml:space="preserve">1112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StepUp</t>
   </si>
   <si>
     <t xml:space="preserve">11111111111113</t>
   </si>
   <si>
+    <t xml:space="preserve">1113</t>
+  </si>
+  <si>
     <t xml:space="preserve">11111111111114</t>
   </si>
   <si>
-    <t xml:space="preserve">AmountWithdrawal</t>
+    <t xml:space="preserve">1114</t>
   </si>
   <si>
     <t xml:space="preserve">11111111111115</t>
   </si>
   <si>
+    <t xml:space="preserve">1115</t>
+  </si>
+  <si>
     <t xml:space="preserve">11111111111116</t>
   </si>
   <si>
-    <t xml:space="preserve">11111111111117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c954eadb-c395-43ec-a117-7bfd4fffa25a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No key c954eadb-c395-43ec-a117-7bfd4fffa25a found in Redis</t>
+    <t xml:space="preserve">1116</t>
   </si>
   <si>
     <t xml:space="preserve">22222222222227</t>
   </si>
   <si>
+    <t xml:space="preserve">1117</t>
+  </si>
+  <si>
     <t xml:space="preserve">No key 22222222222227 found in Redis</t>
   </si>
   <si>
+    <t xml:space="preserve">11111111111118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error auth Criteria Check</t>
+  </si>
+  <si>
     <t xml:space="preserve">11111111111119</t>
   </si>
   <si>
-    <t xml:space="preserve">Error in calling performActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StepUp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111111111118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error auth Criteria Check</t>
-  </si>
-  <si>
     <t xml:space="preserve">1119</t>
   </si>
   <si>
@@ -455,58 +490,28 @@
     <t xml:space="preserve">9823242708</t>
   </si>
   <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error in updating auth criteria CipherRedisError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>75dbf4bf-8eed-4ce4-951c-084ee3c6464e</t>
-  </si>
-  <si>
-    <t>a845ebe6-329f-4034-bd0d-d2b0012bf033</t>
-  </si>
-  <si>
-    <t>649c0674-d6a5-4f99-9eb2-85fc117c9bd6</t>
-  </si>
-  <si>
-    <t>449f90b9-f4ad-412f-9eeb-1eb6b584f786</t>
-  </si>
-  <si>
-    <t>49dd9722-2f5c-4d52-b5ed-3af6599d7097</t>
-  </si>
-  <si>
-    <t>779b4529-3bea-477c-9703-3417a5931368</t>
-  </si>
-  <si>
-    <t>d8c65332-d6f4-44d2-b168-4c1fb86ec378</t>
-  </si>
-  <si>
-    <t>5cf9e700-4f34-4c48-8b92-cd4bcee94dc9</t>
-  </si>
-  <si>
-    <t>6250fc0f-7b4e-41ad-a3dd-d4586cae5969</t>
-  </si>
-  <si>
-    <t>f1818c94-c575-4400-b85f-5117d3576682</t>
-  </si>
-  <si>
-    <t>13d9e486-f196-44a0-b496-8b3413a7aa9f</t>
-  </si>
-  <si>
-    <t>d3817576-0198-408f-bfae-cef7f206ace0</t>
-  </si>
-  <si>
-    <t>f24e1aa2-93a3-4019-81b3-8ffa74db3d94</t>
-  </si>
-  <si>
-    <t>49e9c59c-4c0d-48c2-aa84-5cce719b1f02</t>
-  </si>
-  <si>
-    <t>bd58eebf-3b20-4eb4-89dd-23bc1fd9c053</t>
-  </si>
-  <si>
-    <t>14b002f5-c5b9-427c-bbfc-05c81ffedd9f</t>
-  </si>
-  <si>
-    <t>b4b1e064-2782-4630-adaf-0d4db46d4248</t>
+    <t>67d3a3bf-16aa-4e34-8f3e-af768eeda478</t>
+  </si>
+  <si>
+    <t>3924c64b-66be-482f-bfac-f9c511f524d0</t>
   </si>
 </sst>
 </file>
@@ -623,16 +628,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="12.13" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="38.16" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="12.13" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="38.16" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,375 +680,408 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>75</v>
+        <v>23</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>91</v>
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1100,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1110,375 +1148,408 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1497,10 +1568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1548,409 +1619,486 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>107</v>
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>107</v>
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="2" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1969,13 +2117,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2017,411 +2165,140 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2443,6 +2320,477 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2480,6 +2828,481 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.98" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="8.5" collapsed="true" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2488,413 +3311,396 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
+        <v>24</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
